--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23485.0340459898</v>
+        <v>15180.13883833542</v>
       </c>
     </row>
     <row r="7">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>171.888456069415</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.1106502987868</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306969</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.42398090636011</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>4.041893150377419</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>292.4677344004123</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>74.97121041652157</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -1666,7 +1666,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.49107235181548</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>155.9817818972882</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>304.6279919443828</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.3951661316653</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5071388043577</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V18" t="n">
         <v>197.1263427586206</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>5.033780699103743</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>5.772528940218753</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>145.1037326945683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>76.31884473341539</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306968</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2250,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>32.69463107048553</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>195.6729614720161</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>196.9385539799567</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -2383,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>361.464905015728</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.0983695538478</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>5.033780699103518</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>197.6313432876041</v>
       </c>
       <c r="Y26" t="n">
-        <v>361.4649050157285</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>155.972925266962</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.033780699103518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>27.00807910886667</v>
+        <v>428.4263221807396</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>165.2817763430316</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>121.329212408057</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>156.1674052448244</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>106.6136090086725</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>5.033780699103757</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>50.3816912934128</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>149.6157531058518</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>361.4649050157276</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H36" t="n">
-        <v>31.62322353306971</v>
+        <v>31.6232235330697</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>5.033780699103764</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.4142921975054</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3517,10 +3517,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>65.45709821927974</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>149.6157531058519</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>31.4020839487533</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>5.033780699103314</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>20.85468267689074</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>367.5972781171088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>31.40208394875325</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>73.03055060439711</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.03531583081441</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>3.008008304820521</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4146,10 +4146,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>156.8373238117244</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>43.84851090718121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>874.1756481082185</v>
+        <v>658.9737274659507</v>
       </c>
       <c r="C11" t="n">
-        <v>874.1756481082185</v>
+        <v>220.831254649374</v>
       </c>
       <c r="D11" t="n">
-        <v>874.1756481082185</v>
+        <v>220.831254649374</v>
       </c>
       <c r="E11" t="n">
-        <v>874.1756481082185</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F11" t="n">
-        <v>446.3082185174263</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5071,22 +5071,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1698.173566117875</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1293.318111528908</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X11" t="n">
-        <v>874.1756481082185</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y11" t="n">
-        <v>874.1756481082185</v>
+        <v>658.9737274659507</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2073.372069318168</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="C13" t="n">
-        <v>2073.372069318168</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="D13" t="n">
-        <v>2073.372069318168</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="E13" t="n">
-        <v>2054.761987594572</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="F13" t="n">
-        <v>1878.054933556328</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>1713.313753168846</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>1580.969692548162</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M13" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N13" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T13" t="n">
-        <v>2360.327577447737</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U13" t="n">
-        <v>2360.327577447737</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V13" t="n">
-        <v>2073.372069318168</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="W13" t="n">
-        <v>2073.372069318168</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="X13" t="n">
-        <v>2073.372069318168</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="Y13" t="n">
-        <v>2073.372069318168</v>
+        <v>216.0304522903529</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1486.402314586987</v>
+        <v>1422.719694168252</v>
       </c>
       <c r="C14" t="n">
-        <v>1048.25984177041</v>
+        <v>984.5772213516757</v>
       </c>
       <c r="D14" t="n">
-        <v>612.3500569448547</v>
+        <v>984.5772213516757</v>
       </c>
       <c r="E14" t="n">
-        <v>612.3500569448547</v>
+        <v>550.8024765099708</v>
       </c>
       <c r="F14" t="n">
-        <v>612.3500569448547</v>
+        <v>122.9350469191785</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>122.9350469191785</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
         <v>805.4408022867025</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5314,16 +5314,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1486.402314586987</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W14" t="n">
-        <v>1486.402314586987</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X14" t="n">
-        <v>1486.402314586987</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y14" t="n">
-        <v>1486.402314586987</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="15">
@@ -5339,28 +5339,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.20655154895474</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="C16" t="n">
-        <v>47.20655154895474</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="D16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N16" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O16" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P16" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q16" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R16" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T16" t="n">
-        <v>889.6597230122815</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U16" t="n">
-        <v>889.6597230122815</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V16" t="n">
-        <v>602.704214882712</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="W16" t="n">
-        <v>330.6778104690035</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="X16" t="n">
-        <v>330.6778104690035</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.2581397831118</v>
+        <v>345.4286049681161</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2052.622535079674</v>
+        <v>1144.102679307047</v>
       </c>
       <c r="C17" t="n">
-        <v>1614.480062263097</v>
+        <v>1144.102679307047</v>
       </c>
       <c r="D17" t="n">
-        <v>1178.570277437541</v>
+        <v>1144.102679307047</v>
       </c>
       <c r="E17" t="n">
-        <v>744.7955325958366</v>
+        <v>1144.102679307047</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
         <v>316.9281030050443</v>
@@ -5512,16 +5512,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X17" t="n">
-        <v>2360.327577447737</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="Y17" t="n">
-        <v>2360.327577447737</v>
+        <v>1144.102679307047</v>
       </c>
     </row>
     <row r="18">
@@ -5576,13 +5576,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
@@ -5600,16 +5600,16 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.2911785177464</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="C19" t="n">
-        <v>52.2911785177464</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D19" t="n">
-        <v>52.2911785177464</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E19" t="n">
-        <v>52.2911785177464</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
         <v>47.20655154895474</v>
@@ -5676,49 +5676,49 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N19" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O19" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P19" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q19" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R19" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T19" t="n">
-        <v>889.6597230122815</v>
+        <v>739.4023472031636</v>
       </c>
       <c r="U19" t="n">
-        <v>611.2730910610244</v>
+        <v>739.4023472031636</v>
       </c>
       <c r="V19" t="n">
-        <v>324.3175829314549</v>
+        <v>739.4023472031636</v>
       </c>
       <c r="W19" t="n">
-        <v>52.2911785177464</v>
+        <v>739.4023472031636</v>
       </c>
       <c r="X19" t="n">
-        <v>52.2911785177464</v>
+        <v>739.4023472031636</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.2911785177464</v>
+        <v>739.4023472031636</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1335.414747627536</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C20" t="n">
-        <v>897.2722748109595</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D20" t="n">
-        <v>750.7028478467491</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
@@ -5755,22 +5755,22 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5788,16 +5788,16 @@
         <v>2148.556325916849</v>
       </c>
       <c r="V20" t="n">
-        <v>2148.556325916849</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W20" t="n">
-        <v>1743.700871327883</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X20" t="n">
-        <v>1743.700871327883</v>
+        <v>961.9414578410193</v>
       </c>
       <c r="Y20" t="n">
-        <v>1335.414747627536</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="21">
@@ -5822,13 +5822,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>856.6348431431041</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="C22" t="n">
-        <v>856.6348431431041</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D22" t="n">
-        <v>690.7568503446269</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E22" t="n">
-        <v>520.9988465953642</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N22" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O22" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P22" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q22" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R22" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T22" t="n">
-        <v>856.6348431431041</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U22" t="n">
-        <v>856.6348431431041</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="V22" t="n">
-        <v>856.6348431431041</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="W22" t="n">
-        <v>856.6348431431041</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="X22" t="n">
-        <v>856.6348431431041</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="Y22" t="n">
-        <v>856.6348431431041</v>
+        <v>547.5837284841764</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>716.4307943255671</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C23" t="n">
-        <v>716.4307943255671</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="D23" t="n">
-        <v>716.4307943255671</v>
+        <v>645.6370751724642</v>
       </c>
       <c r="E23" t="n">
-        <v>716.4307943255671</v>
+        <v>645.6370751724642</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
@@ -6031,10 +6031,10 @@
         <v>1081.54685999802</v>
       </c>
       <c r="X23" t="n">
-        <v>716.4307943255671</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y23" t="n">
-        <v>716.4307943255671</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="24">
@@ -6047,37 +6047,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.20655154895474</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="C25" t="n">
-        <v>47.20655154895474</v>
+        <v>717.0980114955063</v>
       </c>
       <c r="D25" t="n">
-        <v>47.20655154895474</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E25" t="n">
-        <v>47.20655154895474</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
         <v>106.1122152511379</v>
@@ -6159,40 +6159,40 @@
         <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>584.8864215794129</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O25" t="n">
-        <v>702.6523029271747</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P25" t="n">
-        <v>803.4213591048582</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q25" t="n">
-        <v>873.1886303355138</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R25" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T25" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U25" t="n">
-        <v>611.2730910610242</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V25" t="n">
-        <v>324.3175829314546</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W25" t="n">
-        <v>52.29117851774618</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X25" t="n">
-        <v>47.20655154895474</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.20655154895474</v>
+        <v>889.6597230122813</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>716.4307943255671</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C26" t="n">
-        <v>716.4307943255671</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D26" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E26" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F26" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V26" t="n">
-        <v>1486.402314586987</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W26" t="n">
-        <v>1081.54685999802</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X26" t="n">
-        <v>1081.54685999802</v>
+        <v>1755.844503376341</v>
       </c>
       <c r="Y26" t="n">
-        <v>716.4307943255671</v>
+        <v>1347.558379675995</v>
       </c>
     </row>
     <row r="27">
@@ -6287,28 +6287,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J27" t="n">
         <v>175.3166270668981</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.20655154895474</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="C28" t="n">
-        <v>47.20655154895474</v>
+        <v>717.0980114955063</v>
       </c>
       <c r="D28" t="n">
-        <v>47.20655154895474</v>
+        <v>551.220018697029</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895474</v>
+        <v>381.4620149477662</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>204.7549609095225</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6396,40 +6396,40 @@
         <v>457.3875097755234</v>
       </c>
       <c r="N28" t="n">
-        <v>584.8864215794129</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O28" t="n">
-        <v>702.6523029271747</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P28" t="n">
-        <v>803.4213591048582</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q28" t="n">
-        <v>873.1886303355138</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R28" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T28" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U28" t="n">
-        <v>611.2730910610242</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V28" t="n">
-        <v>324.3175829314546</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W28" t="n">
-        <v>52.29117851774618</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X28" t="n">
-        <v>52.29117851774618</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.20655154895474</v>
+        <v>889.6597230122813</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>940.4973419450779</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="C29" t="n">
-        <v>502.3548691285012</v>
+        <v>1307.330533248896</v>
       </c>
       <c r="D29" t="n">
-        <v>502.3548691285012</v>
+        <v>1307.330533248896</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001353</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V29" t="n">
-        <v>1785.939375850675</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W29" t="n">
-        <v>1785.939375850675</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X29" t="n">
-        <v>1366.796912429986</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="Y29" t="n">
-        <v>1366.796912429986</v>
+        <v>1745.473006065472</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>762.8256627965027</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>730.8830127630989</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>765.099748934575</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
-        <v>858.9930882810421</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>1019.471760335212</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M30" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q30" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R30" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S30" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T30" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U30" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V30" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2048.949749716585</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="C31" t="n">
-        <v>2048.949749716585</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="D31" t="n">
-        <v>1883.071756918108</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E31" t="n">
-        <v>1713.313753168845</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F31" t="n">
-        <v>1713.313753168845</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>1713.313753168845</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>1580.969692548161</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>1576.780069686592</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1797.450971872448</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N31" t="n">
-        <v>2055.554276014867</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.320157362629</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447736</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951971</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T31" t="n">
-        <v>2048.949749716585</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U31" t="n">
-        <v>2048.949749716585</v>
+        <v>466.8465525652588</v>
       </c>
       <c r="V31" t="n">
-        <v>2048.949749716585</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="W31" t="n">
-        <v>2048.949749716585</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="X31" t="n">
-        <v>2048.949749716585</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="Y31" t="n">
-        <v>2048.949749716585</v>
+        <v>344.2917925571204</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.483051967699</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="C32" t="n">
-        <v>1152.340579151123</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D32" t="n">
         <v>716.4307943255671</v>
@@ -6694,13 +6694,13 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
         <v>512.3249274228015</v>
@@ -6724,28 +6724,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2060.790516184047</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
         <v>1698.173566117874</v>
       </c>
       <c r="W32" t="n">
-        <v>1590.483051967699</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X32" t="n">
-        <v>1590.483051967699</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="Y32" t="n">
-        <v>1590.483051967699</v>
+        <v>874.1756481082181</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M33" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N33" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>407.3870791208724</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="C34" t="n">
-        <v>407.3870791208724</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3870791208724</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="E34" t="n">
-        <v>407.3870791208724</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>326.7831174369939</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>457.3875097755233</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>584.8864215794127</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O34" t="n">
-        <v>702.6523029271746</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P34" t="n">
-        <v>803.421359104858</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q34" t="n">
-        <v>873.1886303355136</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R34" t="n">
-        <v>889.659723012281</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>745.2331845165155</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T34" t="n">
-        <v>694.342587250442</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U34" t="n">
-        <v>694.342587250442</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V34" t="n">
-        <v>407.3870791208724</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W34" t="n">
-        <v>407.3870791208724</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="X34" t="n">
-        <v>407.3870791208724</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="Y34" t="n">
-        <v>407.3870791208724</v>
+        <v>52.2911785177464</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>716.4307943255671</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586986</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.546859998019</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X35" t="n">
-        <v>716.4307943255671</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y35" t="n">
-        <v>716.4307943255671</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="36">
@@ -7007,25 +7007,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H36" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>396.4753171039736</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="C37" t="n">
-        <v>223.9136055871985</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="D37" t="n">
-        <v>223.9136055871985</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895472</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="G37" t="n">
         <v>47.20655154895472</v>
@@ -7101,46 +7101,46 @@
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>326.7831174369939</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>457.3875097755233</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N37" t="n">
-        <v>584.8864215794127</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O37" t="n">
-        <v>702.6523029271746</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P37" t="n">
-        <v>803.421359104858</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q37" t="n">
-        <v>873.1886303355136</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R37" t="n">
-        <v>889.659723012281</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>833.6856904895483</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>833.6856904895483</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U37" t="n">
-        <v>833.6856904895483</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V37" t="n">
-        <v>833.6856904895483</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W37" t="n">
-        <v>833.6856904895483</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="X37" t="n">
-        <v>588.2939358229607</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="Y37" t="n">
-        <v>588.2939358229607</v>
+        <v>52.2911785177464</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1849.01926465316</v>
+        <v>1934.028006962828</v>
       </c>
       <c r="C38" t="n">
-        <v>1410.876791836583</v>
+        <v>1495.885534146252</v>
       </c>
       <c r="D38" t="n">
-        <v>974.9670070110274</v>
+        <v>1059.975749320696</v>
       </c>
       <c r="E38" t="n">
-        <v>541.1922621693225</v>
+        <v>626.2010044789913</v>
       </c>
       <c r="F38" t="n">
-        <v>113.3248325785302</v>
+        <v>198.3335748881991</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895472</v>
+        <v>198.3335748881991</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U38" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V38" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W38" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X38" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="Y38" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447736</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="C40" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D40" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E40" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F40" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G40" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>1576.780069686592</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.450971872448</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M40" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014867</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.320157362629</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447736</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447736</v>
+        <v>889.659723012281</v>
       </c>
       <c r="U40" t="n">
-        <v>2081.940945496479</v>
+        <v>611.2730910610239</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.985437366909</v>
+        <v>324.3175829314544</v>
       </c>
       <c r="W40" t="n">
-        <v>1763.266160650997</v>
+        <v>52.29117851774595</v>
       </c>
       <c r="X40" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="Y40" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>750.7028478467491</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="C41" t="n">
-        <v>750.7028478467491</v>
+        <v>895.6420084975332</v>
       </c>
       <c r="D41" t="n">
-        <v>750.7028478467491</v>
+        <v>895.6420084975332</v>
       </c>
       <c r="E41" t="n">
-        <v>316.9281030050443</v>
+        <v>895.6420084975332</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>467.7745789067409</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>68.2718875862181</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
         <v>1775.969506973259</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438363</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.868684372189</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W41" t="n">
-        <v>1122.013229783223</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="X41" t="n">
-        <v>1122.013229783223</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="Y41" t="n">
-        <v>750.7028478467491</v>
+        <v>1333.78448131411</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
         <v>1614.947661807679</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.92582826486711</v>
+        <v>384.5094434532114</v>
       </c>
       <c r="C43" t="n">
-        <v>78.92582826486711</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="D43" t="n">
-        <v>78.92582826486711</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E43" t="n">
-        <v>78.92582826486711</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
         <v>106.1122152511378</v>
@@ -7575,46 +7575,46 @@
         <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M43" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N43" t="n">
-        <v>584.8864215794129</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O43" t="n">
-        <v>702.6523029271747</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P43" t="n">
-        <v>803.4213591048582</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q43" t="n">
-        <v>873.1886303355138</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R43" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122812</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="T43" t="n">
-        <v>889.6597230122812</v>
+        <v>671.4649515827809</v>
       </c>
       <c r="U43" t="n">
-        <v>611.2730910610242</v>
+        <v>671.4649515827809</v>
       </c>
       <c r="V43" t="n">
-        <v>324.3175829314546</v>
+        <v>384.5094434532114</v>
       </c>
       <c r="W43" t="n">
-        <v>324.3175829314546</v>
+        <v>384.5094434532114</v>
       </c>
       <c r="X43" t="n">
-        <v>78.92582826486711</v>
+        <v>384.5094434532114</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.92582826486711</v>
+        <v>384.5094434532114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>480.9812963906596</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>480.9812963906596</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>480.9812963906596</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895473</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
         <v>47.20655154895473</v>
@@ -7645,16 +7645,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7678,22 +7678,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2342.11008670954</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2083.039395231054</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V44" t="n">
-        <v>1720.422445164881</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W44" t="n">
-        <v>1315.566990575914</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X44" t="n">
-        <v>1315.566990575914</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y44" t="n">
-        <v>907.2808668755674</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7718,7 +7718,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
         <v>47.20655154895473</v>
@@ -7733,10 +7733,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>375.3860945019795</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="C46" t="n">
-        <v>375.3860945019795</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D46" t="n">
-        <v>375.3860945019795</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E46" t="n">
-        <v>205.6280907527167</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F46" t="n">
-        <v>205.6280907527167</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G46" t="n">
         <v>47.20655154895473</v>
@@ -7836,22 +7836,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T46" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U46" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V46" t="n">
-        <v>647.4124989156879</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="W46" t="n">
-        <v>375.3860945019795</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="X46" t="n">
-        <v>375.3860945019795</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="Y46" t="n">
-        <v>375.3860945019795</v>
+        <v>558.4127897239429</v>
       </c>
     </row>
   </sheetData>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>257.5485413238727</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3970141085308352</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>149.63644280541</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.8980903474839</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>103.0399300069053</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>192.0531255250071</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.4093601799817</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -23670,7 +23670,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>128.1041711509856</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.4085828356759</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1935891632189737</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23791,16 +23791,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>169.9062027987576</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>234.0522229154087</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4469542827317</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>327.8844177299277</v>
       </c>
     </row>
     <row r="21">
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.1301207851419</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>79.92980415972838</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -24211,19 +24211,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>226.6502013149276</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>53.48613377075435</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24366,25 +24366,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>7.120843316644738</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>237.9040564208181</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24457,10 +24457,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>217.3196954988783</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.73835744761459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>7.120843316644738</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.1116932799293</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>402.4289182844211</v>
+        <v>1.010675212548108</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24843,22 +24843,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>74.54297551259579</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>162.7567406402168</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24919,10 +24919,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>277.5936428435865</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>294.1932910344045</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25089,13 +25089,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>158.059987884503</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>189.4430605622146</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>209.3750274596599</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>53.4861337707548</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -25323,16 +25323,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>158.059987884503</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>87.56798091330242</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>330.0505661880378</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>117.4085828356768</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>237.9040564208181</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>237.9040564208183</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>246.1696532646379</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>36.60598434623432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -25797,10 +25797,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>143.5378995491081</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>166.7942012512303</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
@@ -25918,22 +25918,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>191.6182231847645</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>397.7988917382565</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.256444771882403</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -26076,16 +26076,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>225.4576294623902</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349565.0929753102</v>
+        <v>349565.0929753101</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349565.0929753101</v>
+        <v>349565.0929753102</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349565.0929753102</v>
+        <v>349565.0929753101</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>349565.0929753102</v>
+        <v>349565.09297531</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>349565.0929753101</v>
+        <v>349565.09297531</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349565.0929753102</v>
+        <v>349565.0929753101</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>139826.0371901242</v>
+      </c>
+      <c r="F2" t="n">
         <v>139826.0371901241</v>
-      </c>
-      <c r="F2" t="n">
-        <v>139826.0371901242</v>
       </c>
       <c r="G2" t="n">
         <v>139826.0371901241</v>
@@ -26337,13 +26337,13 @@
         <v>139826.0371901241</v>
       </c>
       <c r="J2" t="n">
+        <v>139826.0371901241</v>
+      </c>
+      <c r="K2" t="n">
         <v>139826.0371901242</v>
       </c>
-      <c r="K2" t="n">
-        <v>139826.0371901241</v>
-      </c>
       <c r="L2" t="n">
-        <v>139826.0371901241</v>
+        <v>139826.0371901242</v>
       </c>
       <c r="M2" t="n">
         <v>139826.0371901241</v>
@@ -26355,7 +26355,7 @@
         <v>139826.0371901241</v>
       </c>
       <c r="P2" t="n">
-        <v>139826.0371901241</v>
+        <v>139826.0371901242</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>414.2905444231689</v>
       </c>
       <c r="F4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="G4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="H4" t="n">
         <v>414.2905444231689</v>
@@ -26453,13 +26453,13 @@
         <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="O4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963781</v>
@@ -26508,7 +26508,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="P5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-457774.5355546125</v>
+        <v>-458415.7736683879</v>
       </c>
       <c r="F6" t="n">
-        <v>93360.66543606321</v>
+        <v>92719.42732228777</v>
       </c>
       <c r="G6" t="n">
-        <v>93360.66543606315</v>
+        <v>92719.42732228775</v>
       </c>
       <c r="H6" t="n">
-        <v>93360.66543606318</v>
+        <v>92719.4273222878</v>
       </c>
       <c r="I6" t="n">
-        <v>93360.66543606315</v>
+        <v>92719.42732228777</v>
       </c>
       <c r="J6" t="n">
-        <v>93360.66543606321</v>
+        <v>92719.42732228774</v>
       </c>
       <c r="K6" t="n">
-        <v>93360.66543606317</v>
+        <v>92719.4273222878</v>
       </c>
       <c r="L6" t="n">
-        <v>93360.66543606314</v>
+        <v>92719.4273222878</v>
       </c>
       <c r="M6" t="n">
-        <v>-53690.10296650833</v>
+        <v>-54331.34108028369</v>
       </c>
       <c r="N6" t="n">
-        <v>93360.66543606314</v>
+        <v>92719.42732228774</v>
       </c>
       <c r="O6" t="n">
-        <v>93360.66543606314</v>
+        <v>92719.42732228774</v>
       </c>
       <c r="P6" t="n">
-        <v>93360.66543606314</v>
+        <v>92719.4273222878</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932211</v>
@@ -26776,10 +26776,10 @@
         <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
         <v>590.081894361934</v>
@@ -26828,7 +26828,7 @@
         <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
         <v>590.0818943619341</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699067</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,10 +32308,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -32320,7 +32320,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,10 +32414,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562352</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.116681354841</v>
@@ -32967,19 +32967,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916795</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -33049,7 +33049,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33058,7 +33058,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
         <v>97.77787936116989</v>
@@ -33116,16 +33116,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.116681354841</v>
@@ -33441,19 +33441,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,34 +33496,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33532,7 +33532,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
         <v>97.77787936116989</v>
@@ -33590,16 +33590,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.116681354841</v>
@@ -33678,19 +33678,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
@@ -33760,7 +33760,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33769,7 +33769,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116989</v>
@@ -33827,16 +33827,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062837</v>
@@ -34149,7 +34149,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q41" t="n">
         <v>202.607267687947</v>
@@ -34158,10 +34158,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U41" t="n">
         <v>0.150095092452091</v>
@@ -34204,19 +34204,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K42" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108054</v>
@@ -34231,16 +34231,16 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356904</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
@@ -34310,19 +34310,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35412,19 +35412,19 @@
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125708</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785926</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -35892,7 +35892,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35965,13 +35965,13 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -35980,7 +35980,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36436,10 +36436,10 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562352</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
@@ -36539,7 +36539,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,7 +36609,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916795</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
@@ -36776,7 +36776,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36931,10 +36931,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -37092,7 +37092,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766673</v>
@@ -37320,10 +37320,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37396,7 +37396,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
         <v>97.77787936116988</v>
@@ -37715,13 +37715,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027014</v>
@@ -37779,25 +37779,25 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K42" t="n">
         <v>162.099668741586</v>
@@ -37867,22 +37867,22 @@
         <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
@@ -37952,16 +37952,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048099</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38107,7 +38107,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
